--- a/Documentación/Estructura_DB_29_VISAE.xlsx
+++ b/Documentación/Estructura_DB_29_VISAE.xlsx
@@ -34,12 +34,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MAURO: </t>
         </r>
@@ -79,12 +76,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Angel Mauro Avellaneda Barreto:
 </t>
@@ -134,12 +128,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Mauro Avellaneda:
 </t>
@@ -166,12 +157,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Angel Mauro Avellaneda Barreto:
 </t>
@@ -193,12 +181,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">admin@mauroavellaneda.com:
 </t>
@@ -222,12 +207,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">admin@mauroavellaneda.com:
 </t>
@@ -250,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="636">
   <si>
     <t xml:space="preserve">App</t>
   </si>
@@ -1518,21 +1500,39 @@
     <t xml:space="preserve">visa34rolestudiante</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol estudiante</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34roladministrativo</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol administrativo</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34rolacademico</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol académico</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34rolaspirante</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol aspirante</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34rolegresado</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol egresado</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34rolexterno</t>
   </si>
   <si>
+    <t xml:space="preserve">Rol externo</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34grupotipologia</t>
   </si>
   <si>
@@ -1545,9 +1545,15 @@
     <t xml:space="preserve">visa46nombre</t>
   </si>
   <si>
+    <t xml:space="preserve">Grupo tipología</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa34activo</t>
   </si>
   <si>
+    <t xml:space="preserve">Activo</t>
+  </si>
+  <si>
     <t xml:space="preserve">bnombre</t>
   </si>
   <si>
@@ -1563,10 +1569,13 @@
     <t xml:space="preserve">visaegrupotipologia.php</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre Grupo</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa36convtipologia</t>
   </si>
   <si>
-    <t xml:space="preserve">visa36idtipo</t>
+    <t xml:space="preserve">visa36idgrupo</t>
   </si>
   <si>
     <t xml:space="preserve">Tipologias de convocatoria</t>
@@ -1575,6 +1584,9 @@
     <t xml:space="preserve">visaetipologia.php</t>
   </si>
   <si>
+    <t xml:space="preserve">Grupo</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa36consec</t>
   </si>
   <si>
@@ -1686,6 +1698,33 @@
     <t xml:space="preserve">Programa</t>
   </si>
   <si>
+    <t xml:space="preserve">visa35gruponivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Basica media, 2 Diplomados y cursos, 3 Superior, 4 Posgrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo Nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa35nivelforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core22nivelprograma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core22id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core22nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core22grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa35estado</t>
   </si>
   <si>
@@ -1698,6 +1737,9 @@
     <t xml:space="preserve">unad96nombre</t>
   </si>
   <si>
+    <t xml:space="preserve">unad96idmodulo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
@@ -1818,9 +1860,15 @@
     <t xml:space="preserve">visa38nombre</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre prueba</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa38puntajeprueba</t>
   </si>
   <si>
+    <t xml:space="preserve">Puntaje</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa38activo</t>
   </si>
   <si>
@@ -1851,12 +1899,84 @@
     <t xml:space="preserve">visa40idtercero</t>
   </si>
   <si>
+    <t xml:space="preserve">Candidato</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa40id</t>
   </si>
   <si>
     <t xml:space="preserve">visa40estado</t>
   </si>
   <si>
+    <t xml:space="preserve">visa40idperiodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idescuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idprograma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idzona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idcentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40fechainsc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha inscripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40fechaadmision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha admisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40numcupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupo número</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idtipologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idsubtipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtipología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idminuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa40idresolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdocumento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bconvocatoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btipologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsubtipologia</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa41estadoinsc</t>
   </si>
   <si>
@@ -1866,42 +1986,6 @@
     <t xml:space="preserve">visa41nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">visa40idperiodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idescuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idprograma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idzona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idcentro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40fechainsc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40fechaadmision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40numcupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idtipologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idsubtipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idminuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visa40idresolucion</t>
-  </si>
-  <si>
     <t xml:space="preserve">0 Borrador, 1 Preinscripcion, 3 Devolución de documentos, 5 Inscrito, 7 Admitido, 8 Lista de espera, 9 No admitido, 11 Desistido, 17 Cupo confirmado</t>
   </si>
   <si>
@@ -1926,9 +2010,15 @@
     <t xml:space="preserve">visa42titulo</t>
   </si>
   <si>
+    <t xml:space="preserve">Titulo anexo</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa42descripcion</t>
   </si>
   <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa42activo</t>
   </si>
   <si>
@@ -1938,6 +2028,9 @@
     <t xml:space="preserve">visa42obligatorio</t>
   </si>
   <si>
+    <t xml:space="preserve">Obligatorio</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa43inscripdocs</t>
   </si>
   <si>
@@ -1965,9 +2058,15 @@
     <t xml:space="preserve">visa43fechaaprob</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha aprobación</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa43usuarioaprueba</t>
   </si>
   <si>
+    <t xml:space="preserve">Usuario aprueba</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44anotaciones</t>
   </si>
   <si>
@@ -1986,21 +2085,39 @@
     <t xml:space="preserve">0 Interna, 1 publica</t>
   </si>
   <si>
+    <t xml:space="preserve">Alcance</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44nota</t>
   </si>
   <si>
+    <t xml:space="preserve">Anotación</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">Usuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44fecha</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44hora</t>
   </si>
   <si>
+    <t xml:space="preserve">Hora</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa44minuto</t>
   </si>
   <si>
+    <t xml:space="preserve">Minuto</t>
+  </si>
+  <si>
     <t xml:space="preserve">visa45convpruebares</t>
   </si>
   <si>
@@ -2014,6 +2131,9 @@
   </si>
   <si>
     <t xml:space="preserve">visa45idprueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba</t>
   </si>
   <si>
     <t xml:space="preserve">visa45id</t>
@@ -2029,7 +2149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,7 +2201,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -2089,6 +2213,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -2195,32 +2320,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2301,6 +2422,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2562,10 +2687,10 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G377" activeCellId="0" sqref="G377"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I314" activeCellId="0" sqref="I314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,17 +2711,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.99"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2806,7 @@
       <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="R2" s="1" t="n">
@@ -2833,7 +2953,7 @@
       <c r="L11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3041,760 +3161,760 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K23" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="11" t="n">
+      <c r="K23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="n">
+      <c r="C24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="11" t="n">
+      <c r="L24" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11" t="n">
+      <c r="C26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L26" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11" t="s">
+      <c r="L26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11" t="n">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10" t="n">
         <v>2209</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="n">
+      <c r="D27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="L27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="L27" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="C29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11" t="n">
+      <c r="K29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11" t="n">
+      <c r="C30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L30" s="11" t="n">
+      <c r="L30" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="n">
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L32" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="L32" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="11" t="n">
+      <c r="J34" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="11" t="n">
+      <c r="K34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11" t="n">
+      <c r="C35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L35" s="11" t="n">
+      <c r="L35" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11" t="n">
+      <c r="D37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L37" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
+      <c r="L37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="C39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J39" s="11" t="n">
+      <c r="J39" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="11" t="n">
+      <c r="K39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11" t="n">
+      <c r="C40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L40" s="11" t="n">
+      <c r="L40" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11" t="n">
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L42" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+      <c r="L42" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="C44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="11" t="n">
+      <c r="F44" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="11" t="n">
+      <c r="J44" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K44" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="11" t="n">
+      <c r="K44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11" t="n">
+      <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L45" s="11" t="n">
+      <c r="L45" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D46" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11" t="n">
+      <c r="D47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L47" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
+      <c r="L47" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -4059,7 +4179,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4175,452 +4295,452 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+    <row r="72" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="C72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="10" t="n">
+      <c r="F72" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J72" s="10" t="n">
+      <c r="J72" s="9" t="n">
         <v>2901</v>
       </c>
-      <c r="K72" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" s="10" t="n">
+      <c r="K72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="73" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="10" t="s">
+    <row r="73" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="10" t="n">
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L73" s="10" t="n">
+      <c r="L73" s="9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="10" t="s">
+    <row r="74" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M74" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N74" s="10" t="s">
+      <c r="C74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="10" t="s">
+      <c r="O74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="10" t="s">
+      <c r="P74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R74" s="10" t="n">
+      <c r="R74" s="9" t="n">
         <v>2908</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="10" t="s">
+    <row r="75" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="10" t="n">
+      <c r="D75" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="K75" s="10" t="n">
+      <c r="K75" s="9" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="76" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="10" t="s">
+    <row r="76" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="10" t="n">
+      <c r="C76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L76" s="10" t="n">
+      <c r="L76" s="9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="10" t="s">
+    <row r="77" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D77" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="K77" s="10" t="n">
+      <c r="K77" s="9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="10" t="s">
+    <row r="78" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K78" s="10" t="n">
+      <c r="K78" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="10" t="s">
+    <row r="79" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K79" s="10" t="n">
+      <c r="D79" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="L79" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N79" s="10" t="s">
+      <c r="L79" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="O79" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="P79" s="10" t="s">
+      <c r="P79" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="R79" s="10" t="n">
+      <c r="R79" s="9" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="10" t="s">
+    <row r="80" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="10" t="n">
+      <c r="D80" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="K80" s="10" t="n">
+      <c r="K80" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L80" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" s="10" t="n">
+      <c r="L80" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="N80" s="10" t="s">
+      <c r="N80" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O80" s="10" t="s">
+      <c r="O80" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P80" s="10" t="s">
+      <c r="P80" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="Q80" s="10" t="s">
+      <c r="Q80" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R80" s="10" t="n">
+      <c r="R80" s="9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="81" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="10" t="s">
+    <row r="81" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="10" t="n">
+      <c r="D81" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K81" s="10" t="n">
+      <c r="K81" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L81" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M81" s="10" t="n">
+      <c r="L81" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="O81" s="10" t="s">
+      <c r="O81" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="P81" s="10" t="s">
+      <c r="P81" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="Q81" s="10" t="s">
+      <c r="Q81" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="R81" s="10" t="n">
+      <c r="R81" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="82" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="10" t="s">
+    <row r="82" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" s="10" t="n">
+      <c r="C82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="L82" s="10" t="n">
+      <c r="L82" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="83" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="10" t="s">
+    <row r="83" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" s="10" t="n">
+      <c r="C83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="L83" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" s="10" t="s">
+      <c r="L83" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O83" s="10" t="s">
+      <c r="O83" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="P83" s="10" t="s">
+      <c r="P83" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="R83" s="10" t="n">
+      <c r="R83" s="9" t="n">
         <v>2911</v>
       </c>
     </row>
-    <row r="84" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="10" t="s">
+    <row r="84" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="10" t="n">
+      <c r="C84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="L84" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N84" s="10" t="s">
+      <c r="L84" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="O84" s="10" t="s">
+      <c r="O84" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="P84" s="10" t="s">
+      <c r="P84" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="R84" s="10" t="n">
+      <c r="R84" s="9" t="n">
         <v>2912</v>
       </c>
     </row>
-    <row r="85" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="10" t="s">
+    <row r="85" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="10" t="n">
+      <c r="C85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="L85" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M85" s="10" t="n">
+      <c r="L85" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="O85" s="10" t="s">
+      <c r="O85" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P85" s="10" t="s">
+      <c r="P85" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="Q85" s="10" t="s">
+      <c r="Q85" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="R85" s="10" t="n">
+      <c r="R85" s="9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="86" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="10" t="s">
+    <row r="86" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="10" t="n">
+      <c r="C86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L86" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N86" s="10" t="s">
+      <c r="L86" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O86" s="10" t="s">
+      <c r="O86" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="P86" s="10" t="s">
+      <c r="P86" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="R86" s="10" t="n">
+      <c r="R86" s="9" t="n">
         <v>2913</v>
       </c>
     </row>
-    <row r="87" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="10" t="s">
+    <row r="87" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" s="10" t="n">
+      <c r="C87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="9" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="10" t="s">
+    <row r="88" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K88" s="10" t="n">
+      <c r="C88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="9" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="89" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="10" t="s">
+    <row r="89" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="L89" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" s="10" t="s">
+      <c r="C89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L89" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O89" s="10" t="s">
+      <c r="O89" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P89" s="10" t="s">
+      <c r="P89" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R89" s="10" t="n">
+      <c r="R89" s="9" t="n">
         <v>2902</v>
       </c>
     </row>
-    <row r="90" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="10" t="s">
+    <row r="90" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="10" t="n">
+      <c r="D90" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="L90" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="10" t="s">
+      <c r="L90" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="10" t="n">
+      <c r="C91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L91" s="10" t="n">
+      <c r="L91" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="92" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="10" t="s">
+    <row r="92" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K92" s="10" t="n">
+      <c r="K92" s="9" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>170</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4782,7 +4902,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4889,7 +5009,7 @@
       <c r="L105" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N105" s="10" t="s">
+      <c r="N105" s="9" t="s">
         <v>185</v>
       </c>
       <c r="O105" s="1" t="s">
@@ -4918,7 +5038,7 @@
       <c r="M106" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N106" s="10"/>
+      <c r="N106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
@@ -4933,7 +5053,7 @@
       <c r="M107" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N107" s="10"/>
+      <c r="N107" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -4999,7 +5119,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5016,7 +5136,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5125,7 +5245,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5168,7 +5288,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5240,7 +5360,7 @@
       <c r="C127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="10" t="n">
+      <c r="D127" s="9" t="n">
         <v>250</v>
       </c>
       <c r="K127" s="1" t="n">
@@ -5248,7 +5368,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -5287,365 +5407,365 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="s">
+    <row r="133" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D133" s="15" t="n">
+      <c r="D133" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="15" t="n">
+      <c r="F133" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="14" t="n">
         <v>2920</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I133" s="16" t="s">
+      <c r="I133" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J133" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L133" s="15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14" t="s">
+      <c r="J133" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D134" s="15" t="n">
+      <c r="D134" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I134" s="16"/>
-      <c r="K134" s="17" t="n">
+      <c r="I134" s="15"/>
+      <c r="K134" s="16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="135" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14" t="s">
+    <row r="135" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="16"/>
-      <c r="K135" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L135" s="15" t="n">
+      <c r="C135" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="15"/>
+      <c r="K135" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L135" s="14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="136" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14" t="s">
+    <row r="136" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="13"/>
+      <c r="B136" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D136" s="15" t="n">
+      <c r="D136" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="I136" s="16"/>
-      <c r="K136" s="17" t="n">
+      <c r="I136" s="15"/>
+      <c r="K136" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="M136" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14" t="s">
+      <c r="M136" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="15" t="n">
+      <c r="D137" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="I137" s="16"/>
-      <c r="K137" s="17" t="n">
+      <c r="I137" s="15"/>
+      <c r="K137" s="16" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="138" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14" t="s">
+    <row r="138" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="15" t="n">
+      <c r="D138" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="I138" s="16"/>
-      <c r="K138" s="17" t="n">
+      <c r="I138" s="15"/>
+      <c r="K138" s="16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="139" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14" t="s">
+    <row r="139" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="15" t="n">
+      <c r="D139" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="I139" s="16"/>
-      <c r="K139" s="17" t="n">
+      <c r="I139" s="15"/>
+      <c r="K139" s="16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="140" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14" t="s">
+    <row r="140" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="13"/>
+      <c r="B140" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="15" t="n">
+      <c r="D140" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="H140" s="8"/>
-      <c r="I140" s="16"/>
-      <c r="K140" s="17" t="n">
+      <c r="H140" s="2"/>
+      <c r="I140" s="15"/>
+      <c r="K140" s="16" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="141" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14" t="s">
+    <row r="141" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="13"/>
+      <c r="B141" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D141" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" s="16"/>
-      <c r="K141" s="17" t="n">
+      <c r="D141" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="15"/>
+      <c r="K141" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="L141" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O141" s="15" t="n">
+      <c r="L141" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" s="14" t="n">
         <v>111</v>
       </c>
-      <c r="P141" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14" t="s">
+      <c r="P141" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13"/>
+      <c r="B142" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="15" t="n">
+      <c r="D142" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="I142" s="16"/>
-      <c r="K142" s="17" t="n">
+      <c r="I142" s="15"/>
+      <c r="K142" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="L142" s="15" t="n">
+      <c r="L142" s="14" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="143" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14" t="s">
+    <row r="143" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="13"/>
+      <c r="B143" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D143" s="15" t="n">
+      <c r="D143" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="I143" s="16"/>
-      <c r="K143" s="17" t="n">
+      <c r="I143" s="15"/>
+      <c r="K143" s="16" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="144" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14" t="s">
+    <row r="144" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="13"/>
+      <c r="B144" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="15" t="n">
+      <c r="D144" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="I144" s="16"/>
-      <c r="K144" s="17" t="n">
+      <c r="I144" s="15"/>
+      <c r="K144" s="16" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="145" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14" t="s">
+    <row r="145" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="13"/>
+      <c r="B145" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D145" s="15" t="n">
+      <c r="D145" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="I145" s="16"/>
-      <c r="K145" s="17" t="n">
+      <c r="I145" s="15"/>
+      <c r="K145" s="16" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="146" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14" t="s">
+    <row r="146" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D146" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" s="16"/>
-      <c r="K146" s="17" t="n">
+      <c r="D146" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" s="15"/>
+      <c r="K146" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="L146" s="17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14" t="s">
+      <c r="L146" s="16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="13"/>
+      <c r="B147" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="15" t="n">
+      <c r="D147" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="I147" s="16"/>
-      <c r="K147" s="17" t="n">
+      <c r="I147" s="15"/>
+      <c r="K147" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="L147" s="17"/>
-    </row>
-    <row r="148" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14" t="s">
+      <c r="L147" s="16"/>
+    </row>
+    <row r="148" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="15" t="n">
+      <c r="D148" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="I148" s="16"/>
-      <c r="K148" s="17" t="n">
+      <c r="I148" s="15"/>
+      <c r="K148" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="L148" s="17"/>
-    </row>
-    <row r="149" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14"/>
-      <c r="B149" s="18" t="s">
+      <c r="L148" s="16"/>
+    </row>
+    <row r="149" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="13"/>
+      <c r="B149" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I149" s="16"/>
-      <c r="K149" s="17" t="n">
+      <c r="I149" s="15"/>
+      <c r="K149" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="L149" s="17"/>
-    </row>
-    <row r="150" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="14"/>
-      <c r="B150" s="18" t="s">
+      <c r="L149" s="16"/>
+    </row>
+    <row r="150" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="13"/>
+      <c r="B150" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" s="16"/>
-      <c r="K150" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L150" s="17" t="n">
+      <c r="C150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="15"/>
+      <c r="K150" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="L150" s="16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="151" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14"/>
-      <c r="B151" s="18" t="s">
+    <row r="151" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="13"/>
+      <c r="B151" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C151" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I151" s="16"/>
-      <c r="K151" s="17" t="n">
+      <c r="C151" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="15"/>
+      <c r="K151" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="L151" s="17" t="n">
+      <c r="L151" s="16" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C155" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="15" t="s">
+      <c r="C155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F155" s="1" t="n">
@@ -5654,16 +5774,16 @@
       <c r="G155" s="1" t="n">
         <v>2931</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H155" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="14" t="s">
         <v>232</v>
       </c>
       <c r="J155" s="1" t="n">
         <v>2902</v>
       </c>
-      <c r="K155" s="17" t="n">
+      <c r="K155" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L155" s="1" t="n">
@@ -5671,55 +5791,55 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C156" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K156" s="17" t="n">
+      <c r="C156" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="L156" s="17" t="n">
+      <c r="L156" s="16" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C157" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K157" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L157" s="17" t="n">
+      <c r="C157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" s="16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K158" s="17" t="n">
+      <c r="K158" s="16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C159" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K159" s="17" t="n">
+      <c r="C159" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L159" s="1" t="n">
@@ -5727,13 +5847,13 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C160" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" s="17" t="n">
+      <c r="C160" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L160" s="1" t="n">
@@ -5741,13 +5861,13 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" s="17" t="n">
+      <c r="C161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="16" t="n">
         <v>7</v>
       </c>
       <c r="L161" s="1" t="n">
@@ -5755,16 +5875,16 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C163" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163" s="15" t="s">
+      <c r="C163" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="1" t="n">
@@ -5773,13 +5893,13 @@
       <c r="G163" s="1" t="n">
         <v>2932</v>
       </c>
-      <c r="H163" s="15" t="s">
+      <c r="H163" s="14" t="s">
         <v>241</v>
       </c>
       <c r="J163" s="1" t="n">
         <v>2902</v>
       </c>
-      <c r="K163" s="17" t="n">
+      <c r="K163" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L163" s="1" t="n">
@@ -5788,21 +5908,21 @@
       <c r="N163" s="1" t="n">
         <v>2931</v>
       </c>
-      <c r="O163" s="15" t="s">
+      <c r="O163" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C164" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" s="15" t="s">
+      <c r="C164" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K164" s="17" t="n">
+      <c r="K164" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L164" s="1" t="n">
@@ -5810,13 +5930,13 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C165" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K165" s="17" t="n">
+      <c r="C165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L165" s="1" t="n">
@@ -5824,16 +5944,16 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C166" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" s="15" t="s">
+      <c r="C166" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K166" s="17" t="n">
+      <c r="K166" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L166" s="1" t="n">
@@ -5841,13 +5961,13 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K167" s="17" t="n">
+      <c r="C167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L167" s="1" t="n">
@@ -5855,13 +5975,13 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" s="17" t="n">
+      <c r="C168" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K168" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L168" s="1" t="n">
@@ -5893,7 +6013,7 @@
       <c r="J170" s="1" t="n">
         <v>2902</v>
       </c>
-      <c r="K170" s="17" t="n">
+      <c r="K170" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L170" s="1" t="n">
@@ -5902,7 +6022,7 @@
       <c r="N170" s="1" t="n">
         <v>2931</v>
       </c>
-      <c r="O170" s="15" t="s">
+      <c r="O170" s="14" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5916,7 +6036,7 @@
       <c r="E171" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K171" s="17" t="n">
+      <c r="K171" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L171" s="1" t="n">
@@ -5933,19 +6053,19 @@
       <c r="E172" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K172" s="17" t="n">
+      <c r="K172" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L172" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N172" s="15" t="s">
+      <c r="N172" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="O172" s="15" t="s">
+      <c r="O172" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="P172" s="15" t="s">
+      <c r="P172" s="14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5959,7 +6079,7 @@
       <c r="E173" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K173" s="17" t="n">
+      <c r="K173" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L173" s="1" t="n">
@@ -5968,16 +6088,16 @@
       <c r="M173" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N173" s="15" t="s">
+      <c r="N173" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="O173" s="19" t="s">
+      <c r="O173" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="P173" s="19" t="s">
+      <c r="P173" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="Q173" s="19" t="s">
+      <c r="Q173" s="18" t="s">
         <v>258</v>
       </c>
       <c r="R173" s="1" t="n">
@@ -5991,7 +6111,7 @@
       <c r="C174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K174" s="17" t="n">
+      <c r="K174" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L174" s="1" t="n">
@@ -6005,7 +6125,7 @@
       <c r="C175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K175" s="17" t="n">
+      <c r="K175" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L175" s="1" t="n">
@@ -6040,7 +6160,7 @@
       <c r="J178" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K178" s="17" t="n">
+      <c r="K178" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L178" s="1" t="n">
@@ -6054,7 +6174,7 @@
       <c r="C179" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K179" s="17" t="n">
+      <c r="K179" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L179" s="1" t="n">
@@ -6068,7 +6188,7 @@
       <c r="C180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K180" s="17" t="n">
+      <c r="K180" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L180" s="1" t="n">
@@ -6082,7 +6202,7 @@
       <c r="C181" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K181" s="17" t="n">
+      <c r="K181" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L181" s="1" t="n">
@@ -6108,7 +6228,7 @@
       <c r="D182" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="K182" s="17" t="n">
+      <c r="K182" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6119,7 +6239,7 @@
       <c r="C183" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K183" s="17" t="n">
+      <c r="K183" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6133,7 +6253,7 @@
       <c r="H184" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K184" s="17" t="n">
+      <c r="K184" s="16" t="n">
         <v>7</v>
       </c>
       <c r="L184" s="1" t="n">
@@ -6159,7 +6279,7 @@
       <c r="H185" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K185" s="17" t="n">
+      <c r="K185" s="16" t="n">
         <v>8</v>
       </c>
       <c r="L185" s="1" t="n">
@@ -6182,19 +6302,19 @@
       <c r="C186" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K186" s="17" t="n">
+      <c r="K186" s="16" t="n">
         <v>9</v>
       </c>
       <c r="L186" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N186" s="15" t="s">
+      <c r="N186" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="O186" s="20" t="s">
+      <c r="O186" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="P186" s="20" t="s">
+      <c r="P186" s="19" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6205,7 +6325,7 @@
       <c r="C187" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K187" s="17" t="n">
+      <c r="K187" s="16" t="n">
         <v>10</v>
       </c>
       <c r="L187" s="1" t="n">
@@ -6219,7 +6339,7 @@
       <c r="C188" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K188" s="17" t="n">
+      <c r="K188" s="16" t="n">
         <v>11</v>
       </c>
       <c r="L188" s="1" t="n">
@@ -6233,7 +6353,7 @@
       <c r="C189" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K189" s="17" t="n">
+      <c r="K189" s="16" t="n">
         <v>12</v>
       </c>
       <c r="L189" s="1" t="n">
@@ -6241,7 +6361,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K190" s="17"/>
+      <c r="K190" s="16"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
@@ -6271,7 +6391,7 @@
       <c r="J191" s="1" t="n">
         <v>2903</v>
       </c>
-      <c r="K191" s="17" t="n">
+      <c r="K191" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L191" s="1" t="n">
@@ -6297,7 +6417,7 @@
       <c r="E192" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K192" s="17" t="n">
+      <c r="K192" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L192" s="1" t="n">
@@ -6314,22 +6434,22 @@
       <c r="E193" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K193" s="17" t="n">
+      <c r="K193" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L193" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N193" s="15" t="s">
+      <c r="N193" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="O193" s="15" t="s">
+      <c r="O193" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="P193" s="15" t="s">
+      <c r="P193" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="Q193" s="15" t="s">
+      <c r="Q193" s="14" t="s">
         <v>298</v>
       </c>
       <c r="R193" s="1" t="n">
@@ -6343,7 +6463,7 @@
       <c r="C194" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K194" s="17" t="n">
+      <c r="K194" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L194" s="1" t="n">
@@ -6357,7 +6477,7 @@
       <c r="C195" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K195" s="17" t="n">
+      <c r="K195" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L195" s="1" t="n">
@@ -6380,7 +6500,7 @@
       <c r="C196" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K196" s="17" t="n">
+      <c r="K196" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L196" s="1" t="n">
@@ -6389,13 +6509,13 @@
       <c r="M196" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N196" s="15" t="s">
+      <c r="N196" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O196" s="15" t="s">
+      <c r="O196" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P196" s="15" t="s">
+      <c r="P196" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6406,7 +6526,7 @@
       <c r="C197" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K197" s="17" t="n">
+      <c r="K197" s="16" t="n">
         <v>7</v>
       </c>
       <c r="L197" s="1" t="n">
@@ -6415,13 +6535,13 @@
       <c r="M197" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N197" s="15" t="s">
+      <c r="N197" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="O197" s="15" t="s">
+      <c r="O197" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="P197" s="15" t="s">
+      <c r="P197" s="14" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6432,7 +6552,7 @@
       <c r="C198" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K198" s="17" t="n">
+      <c r="K198" s="16" t="n">
         <v>8</v>
       </c>
       <c r="L198" s="1" t="n">
@@ -6441,13 +6561,13 @@
       <c r="M198" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N198" s="15" t="s">
+      <c r="N198" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O198" s="15" t="s">
+      <c r="O198" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P198" s="15" t="s">
+      <c r="P198" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6458,30 +6578,30 @@
       <c r="C199" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K199" s="17" t="n">
+      <c r="K199" s="16" t="n">
         <v>9</v>
       </c>
       <c r="L199" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N199" s="15" t="s">
+      <c r="N199" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O199" s="15" t="s">
+      <c r="O199" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P199" s="15" t="s">
+      <c r="P199" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K200" s="17" t="n">
+      <c r="C200" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" s="16" t="n">
         <v>10</v>
       </c>
       <c r="L200" s="1" t="n">
@@ -6490,24 +6610,24 @@
       <c r="M200" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N200" s="15" t="s">
+      <c r="N200" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O200" s="15" t="s">
+      <c r="O200" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P200" s="15" t="s">
+      <c r="P200" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K201" s="17" t="n">
+      <c r="C201" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K201" s="16" t="n">
         <v>11</v>
       </c>
       <c r="L201" s="1" t="n">
@@ -6516,24 +6636,24 @@
       <c r="M201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N201" s="15" t="s">
+      <c r="N201" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O201" s="15" t="s">
+      <c r="O201" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P201" s="15" t="s">
+      <c r="P201" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C202" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K202" s="17" t="n">
+      <c r="C202" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K202" s="16" t="n">
         <v>12</v>
       </c>
       <c r="L202" s="1" t="n">
@@ -6542,24 +6662,24 @@
       <c r="M202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N202" s="15" t="s">
+      <c r="N202" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O202" s="15" t="s">
+      <c r="O202" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P202" s="15" t="s">
+      <c r="P202" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="21" t="s">
+      <c r="B203" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C203" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K203" s="17" t="n">
+      <c r="C203" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K203" s="16" t="n">
         <v>13</v>
       </c>
       <c r="L203" s="1" t="n">
@@ -6568,24 +6688,24 @@
       <c r="M203" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N203" s="15" t="s">
+      <c r="N203" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O203" s="15" t="s">
+      <c r="O203" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P203" s="15" t="s">
+      <c r="P203" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C204" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K204" s="17" t="n">
+      <c r="C204" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" s="16" t="n">
         <v>14</v>
       </c>
       <c r="L204" s="1" t="n">
@@ -6594,24 +6714,24 @@
       <c r="M204" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N204" s="15" t="s">
+      <c r="N204" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O204" s="15" t="s">
+      <c r="O204" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P204" s="15" t="s">
+      <c r="P204" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="21" t="s">
+      <c r="B205" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C205" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K205" s="17" t="n">
+      <c r="C205" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K205" s="16" t="n">
         <v>15</v>
       </c>
       <c r="L205" s="1" t="n">
@@ -6620,24 +6740,24 @@
       <c r="M205" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N205" s="15" t="s">
+      <c r="N205" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O205" s="15" t="s">
+      <c r="O205" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P205" s="15" t="s">
+      <c r="P205" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C206" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K206" s="17" t="n">
+      <c r="C206" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" s="16" t="n">
         <v>16</v>
       </c>
       <c r="L206" s="1" t="n">
@@ -6646,24 +6766,24 @@
       <c r="M206" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N206" s="15" t="s">
+      <c r="N206" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O206" s="15" t="s">
+      <c r="O206" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P206" s="15" t="s">
+      <c r="P206" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="21" t="s">
+      <c r="B207" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C207" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K207" s="17" t="n">
+      <c r="C207" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K207" s="16" t="n">
         <v>17</v>
       </c>
       <c r="L207" s="1" t="n">
@@ -6672,24 +6792,24 @@
       <c r="M207" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N207" s="15" t="s">
+      <c r="N207" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O207" s="15" t="s">
+      <c r="O207" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P207" s="15" t="s">
+      <c r="P207" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="21" t="s">
+      <c r="B208" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C208" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K208" s="17" t="n">
+      <c r="C208" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K208" s="16" t="n">
         <v>18</v>
       </c>
       <c r="L208" s="1" t="n">
@@ -6698,24 +6818,24 @@
       <c r="M208" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N208" s="15" t="s">
+      <c r="N208" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O208" s="15" t="s">
+      <c r="O208" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P208" s="15" t="s">
+      <c r="P208" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="21" t="s">
+      <c r="B209" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C209" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K209" s="17" t="n">
+      <c r="C209" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K209" s="16" t="n">
         <v>19</v>
       </c>
       <c r="L209" s="1" t="n">
@@ -6724,24 +6844,24 @@
       <c r="M209" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N209" s="15" t="s">
+      <c r="N209" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O209" s="15" t="s">
+      <c r="O209" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P209" s="15" t="s">
+      <c r="P209" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="21" t="s">
+      <c r="B210" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C210" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K210" s="17" t="n">
+      <c r="C210" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K210" s="16" t="n">
         <v>20</v>
       </c>
       <c r="L210" s="1" t="n">
@@ -6750,24 +6870,24 @@
       <c r="M210" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N210" s="15" t="s">
+      <c r="N210" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O210" s="15" t="s">
+      <c r="O210" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P210" s="15" t="s">
+      <c r="P210" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C211" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K211" s="17" t="n">
+      <c r="C211" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K211" s="16" t="n">
         <v>21</v>
       </c>
       <c r="L211" s="1" t="n">
@@ -6776,24 +6896,24 @@
       <c r="M211" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N211" s="15" t="s">
+      <c r="N211" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O211" s="15" t="s">
+      <c r="O211" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P211" s="15" t="s">
+      <c r="P211" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C212" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K212" s="17" t="n">
+      <c r="C212" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K212" s="16" t="n">
         <v>22</v>
       </c>
       <c r="L212" s="1" t="n">
@@ -6802,24 +6922,24 @@
       <c r="M212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N212" s="15" t="s">
+      <c r="N212" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O212" s="15" t="s">
+      <c r="O212" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P212" s="15" t="s">
+      <c r="P212" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="21" t="s">
+      <c r="B213" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C213" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K213" s="17" t="n">
+      <c r="C213" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K213" s="16" t="n">
         <v>23</v>
       </c>
       <c r="L213" s="1" t="n">
@@ -6828,24 +6948,24 @@
       <c r="M213" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N213" s="15" t="s">
+      <c r="N213" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O213" s="15" t="s">
+      <c r="O213" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P213" s="15" t="s">
+      <c r="P213" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="21" t="s">
+      <c r="B214" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C214" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K214" s="17" t="n">
+      <c r="C214" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K214" s="16" t="n">
         <v>24</v>
       </c>
       <c r="L214" s="1" t="n">
@@ -6854,24 +6974,24 @@
       <c r="M214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N214" s="15" t="s">
+      <c r="N214" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O214" s="15" t="s">
+      <c r="O214" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P214" s="15" t="s">
+      <c r="P214" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="21" t="s">
+      <c r="B215" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C215" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K215" s="17" t="n">
+      <c r="C215" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K215" s="16" t="n">
         <v>25</v>
       </c>
       <c r="L215" s="1" t="n">
@@ -6880,24 +7000,24 @@
       <c r="M215" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N215" s="15" t="s">
+      <c r="N215" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O215" s="15" t="s">
+      <c r="O215" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P215" s="15" t="s">
+      <c r="P215" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C216" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K216" s="17" t="n">
+      <c r="C216" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K216" s="16" t="n">
         <v>26</v>
       </c>
       <c r="L216" s="1" t="n">
@@ -6906,24 +7026,24 @@
       <c r="M216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N216" s="15" t="s">
+      <c r="N216" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O216" s="15" t="s">
+      <c r="O216" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P216" s="15" t="s">
+      <c r="P216" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="21" t="s">
+      <c r="B217" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C217" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K217" s="17" t="n">
+      <c r="C217" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K217" s="16" t="n">
         <v>27</v>
       </c>
       <c r="L217" s="1" t="n">
@@ -6932,24 +7052,24 @@
       <c r="M217" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N217" s="15" t="s">
+      <c r="N217" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O217" s="15" t="s">
+      <c r="O217" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P217" s="15" t="s">
+      <c r="P217" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="21" t="s">
+      <c r="B218" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="C218" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K218" s="17" t="n">
+      <c r="C218" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K218" s="16" t="n">
         <v>28</v>
       </c>
       <c r="L218" s="1" t="n">
@@ -6958,24 +7078,24 @@
       <c r="M218" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N218" s="15" t="s">
+      <c r="N218" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O218" s="15" t="s">
+      <c r="O218" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P218" s="15" t="s">
+      <c r="P218" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C219" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K219" s="17" t="n">
+      <c r="C219" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K219" s="16" t="n">
         <v>29</v>
       </c>
       <c r="L219" s="1" t="n">
@@ -6984,24 +7104,24 @@
       <c r="M219" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N219" s="15" t="s">
+      <c r="N219" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="O219" s="15" t="s">
+      <c r="O219" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="P219" s="15" t="s">
+      <c r="P219" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K220" s="17" t="n">
+      <c r="C220" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" s="16" t="n">
         <v>30</v>
       </c>
       <c r="M220" s="1" t="n">
@@ -7018,13 +7138,13 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C221" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K221" s="17" t="n">
+      <c r="C221" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K221" s="16" t="n">
         <v>31</v>
       </c>
       <c r="M221" s="1" t="n">
@@ -7041,13 +7161,13 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C222" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K222" s="17" t="n">
+      <c r="C222" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K222" s="16" t="n">
         <v>32</v>
       </c>
       <c r="M222" s="1" t="n">
@@ -7064,13 +7184,13 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="21" t="s">
+      <c r="B223" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C223" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K223" s="17" t="n">
+      <c r="C223" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K223" s="16" t="n">
         <v>33</v>
       </c>
       <c r="M223" s="1" t="n">
@@ -7087,13 +7207,13 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C224" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K224" s="17" t="n">
+      <c r="C224" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K224" s="16" t="n">
         <v>34</v>
       </c>
       <c r="M224" s="1" t="n">
@@ -7110,13 +7230,13 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C225" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K225" s="17" t="n">
+      <c r="C225" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K225" s="16" t="n">
         <v>35</v>
       </c>
       <c r="M225" s="1" t="n">
@@ -7133,13 +7253,13 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C226" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K226" s="17" t="n">
+      <c r="C226" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K226" s="16" t="n">
         <v>36</v>
       </c>
       <c r="M226" s="1" t="n">
@@ -7156,13 +7276,13 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="21" t="s">
+      <c r="B227" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C227" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K227" s="17" t="n">
+      <c r="C227" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K227" s="16" t="n">
         <v>37</v>
       </c>
       <c r="M227" s="1" t="n">
@@ -7179,13 +7299,13 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C228" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K228" s="17" t="n">
+      <c r="C228" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="16" t="n">
         <v>38</v>
       </c>
       <c r="M228" s="1" t="n">
@@ -7202,13 +7322,13 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C229" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K229" s="17" t="n">
+      <c r="C229" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="16" t="n">
         <v>39</v>
       </c>
       <c r="M229" s="1" t="n">
@@ -7225,13 +7345,13 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C230" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K230" s="17" t="n">
+      <c r="C230" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K230" s="16" t="n">
         <v>40</v>
       </c>
       <c r="M230" s="1" t="n">
@@ -7248,13 +7368,13 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C231" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K231" s="17" t="n">
+      <c r="C231" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K231" s="16" t="n">
         <v>41</v>
       </c>
       <c r="M231" s="1" t="n">
@@ -7271,13 +7391,13 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C232" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K232" s="17" t="n">
+      <c r="C232" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K232" s="16" t="n">
         <v>42</v>
       </c>
       <c r="M232" s="1" t="n">
@@ -7294,13 +7414,13 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="21" t="s">
+      <c r="B233" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C233" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K233" s="17" t="n">
+      <c r="C233" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K233" s="16" t="n">
         <v>43</v>
       </c>
       <c r="M233" s="1" t="n">
@@ -7317,13 +7437,13 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="21" t="s">
+      <c r="B234" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C234" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K234" s="17" t="n">
+      <c r="C234" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K234" s="16" t="n">
         <v>44</v>
       </c>
       <c r="M234" s="1" t="n">
@@ -7340,13 +7460,13 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="21" t="s">
+      <c r="B235" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C235" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K235" s="17" t="n">
+      <c r="C235" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K235" s="16" t="n">
         <v>45</v>
       </c>
       <c r="M235" s="1" t="n">
@@ -7363,13 +7483,13 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C236" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K236" s="17" t="n">
+      <c r="C236" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K236" s="16" t="n">
         <v>46</v>
       </c>
       <c r="M236" s="1" t="n">
@@ -7386,13 +7506,13 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C237" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K237" s="17" t="n">
+      <c r="C237" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K237" s="16" t="n">
         <v>47</v>
       </c>
       <c r="M237" s="1" t="n">
@@ -7409,13 +7529,13 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="21" t="s">
+      <c r="B238" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C238" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K238" s="17" t="n">
+      <c r="C238" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K238" s="16" t="n">
         <v>48</v>
       </c>
       <c r="M238" s="1" t="n">
@@ -7432,13 +7552,13 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="21" t="s">
+      <c r="B239" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="C239" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K239" s="17" t="n">
+      <c r="C239" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K239" s="16" t="n">
         <v>49</v>
       </c>
       <c r="M239" s="1" t="n">
@@ -7455,45 +7575,45 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="C240" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K240" s="17" t="n">
+      <c r="K240" s="16" t="n">
         <v>50</v>
       </c>
       <c r="L240" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M240" s="15"/>
-      <c r="N240" s="15" t="s">
+      <c r="M240" s="14"/>
+      <c r="N240" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O240" s="15" t="s">
+      <c r="O240" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="P240" s="15" t="s">
+      <c r="P240" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Q240" s="15"/>
-      <c r="R240" s="15"/>
+      <c r="Q240" s="14"/>
+      <c r="R240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K241" s="17" t="n">
+      <c r="K241" s="16" t="n">
         <v>51</v>
       </c>
       <c r="L241" s="1" t="n">
@@ -7502,16 +7622,16 @@
       <c r="M241" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N241" s="15" t="s">
+      <c r="N241" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O241" s="15" t="s">
+      <c r="O241" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="P241" s="15" t="s">
+      <c r="P241" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="Q241" s="15" t="s">
+      <c r="Q241" s="14" t="s">
         <v>144</v>
       </c>
       <c r="R241" s="1" t="n">
@@ -7519,16 +7639,16 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K242" s="17" t="n">
+      <c r="K242" s="16" t="n">
         <v>52</v>
       </c>
       <c r="L242" s="1" t="n">
@@ -7537,16 +7657,16 @@
       <c r="M242" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N242" s="15" t="s">
+      <c r="N242" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="O242" s="15" t="s">
+      <c r="O242" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="P242" s="15" t="s">
+      <c r="P242" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="Q242" s="15" t="s">
+      <c r="Q242" s="14" t="s">
         <v>149</v>
       </c>
       <c r="R242" s="1" t="n">
@@ -7554,10 +7674,10 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K243" s="17"/>
-      <c r="N243" s="15"/>
-      <c r="O243" s="15"/>
-      <c r="P243" s="15"/>
+      <c r="K243" s="16"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
@@ -7584,7 +7704,7 @@
       <c r="J244" s="1" t="n">
         <v>2903</v>
       </c>
-      <c r="K244" s="17" t="n">
+      <c r="K244" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L244" s="1" t="n">
@@ -7607,7 +7727,7 @@
       <c r="E245" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K245" s="17" t="n">
+      <c r="K245" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L245" s="1" t="n">
@@ -7621,7 +7741,7 @@
       <c r="C246" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K246" s="17" t="n">
+      <c r="K246" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L246" s="1" t="n">
@@ -7635,7 +7755,7 @@
       <c r="C247" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K247" s="17" t="n">
+      <c r="K247" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7646,7 +7766,7 @@
       <c r="C248" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K248" s="17" t="n">
+      <c r="K248" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L248" s="1" t="n">
@@ -7663,7 +7783,7 @@
       <c r="C249" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K249" s="17" t="n">
+      <c r="K249" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L249" s="1" t="n">
@@ -7674,7 +7794,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K250" s="17"/>
+      <c r="K250" s="16"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
@@ -7704,7 +7824,7 @@
       <c r="J251" s="1" t="n">
         <v>2903</v>
       </c>
-      <c r="K251" s="17" t="n">
+      <c r="K251" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L251" s="1" t="n">
@@ -7730,7 +7850,7 @@
       <c r="E252" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K252" s="17" t="n">
+      <c r="K252" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L252" s="1" t="n">
@@ -7744,7 +7864,7 @@
       <c r="C253" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K253" s="17" t="n">
+      <c r="K253" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L253" s="1" t="n">
@@ -7758,7 +7878,7 @@
       <c r="C254" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K254" s="17" t="n">
+      <c r="K254" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L254" s="1" t="n">
@@ -7775,7 +7895,7 @@
       <c r="H255" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K255" s="17" t="n">
+      <c r="K255" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L255" s="1" t="n">
@@ -7789,7 +7909,7 @@
       <c r="C256" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K256" s="17" t="n">
+      <c r="K256" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L256" s="1" t="n">
@@ -7812,7 +7932,7 @@
       <c r="C257" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K257" s="17" t="n">
+      <c r="K257" s="16" t="n">
         <v>7</v>
       </c>
       <c r="L257" s="1" t="n">
@@ -7829,7 +7949,7 @@
       <c r="C258" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K258" s="17" t="n">
+      <c r="K258" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7840,7 +7960,7 @@
       <c r="C259" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K259" s="17" t="n">
+      <c r="K259" s="16" t="n">
         <v>9</v>
       </c>
       <c r="L259" s="1" t="n">
@@ -7851,7 +7971,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K260" s="17"/>
+      <c r="K260" s="16"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
@@ -7878,7 +7998,7 @@
       <c r="J261" s="1" t="n">
         <v>2903</v>
       </c>
-      <c r="K261" s="17" t="n">
+      <c r="K261" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L261" s="1" t="n">
@@ -7901,19 +8021,19 @@
       <c r="E262" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K262" s="17" t="n">
+      <c r="K262" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L262" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N262" s="15" t="s">
+      <c r="N262" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="O262" s="15" t="s">
+      <c r="O262" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="P262" s="15" t="s">
+      <c r="P262" s="14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7924,7 +8044,7 @@
       <c r="C263" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K263" s="17" t="n">
+      <c r="K263" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L263" s="1" t="n">
@@ -7938,7 +8058,7 @@
       <c r="C264" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K264" s="17" t="n">
+      <c r="K264" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L264" s="1" t="n">
@@ -7946,7 +8066,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K265" s="17"/>
+      <c r="K265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
@@ -7973,7 +8093,7 @@
       <c r="J266" s="1" t="n">
         <v>2903</v>
       </c>
-      <c r="K266" s="17" t="n">
+      <c r="K266" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L266" s="1" t="n">
@@ -7996,7 +8116,7 @@
       <c r="E267" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K267" s="17" t="n">
+      <c r="K267" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L267" s="1" t="n">
@@ -8019,7 +8139,7 @@
       <c r="C268" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K268" s="17" t="n">
+      <c r="K268" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L268" s="1" t="n">
@@ -8033,7 +8153,7 @@
       <c r="C269" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K269" s="17" t="n">
+      <c r="K269" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L269" s="1" t="n">
@@ -8050,7 +8170,7 @@
       <c r="C270" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K270" s="17" t="n">
+      <c r="K270" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L270" s="1" t="n">
@@ -8059,16 +8179,16 @@
       <c r="M270" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N270" s="15" t="s">
+      <c r="N270" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="O270" s="15" t="s">
+      <c r="O270" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="P270" s="15" t="s">
+      <c r="P270" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="Q270" s="15" t="s">
+      <c r="Q270" s="14" t="s">
         <v>298</v>
       </c>
       <c r="R270" s="1" t="n">
@@ -8082,7 +8202,7 @@
       <c r="C271" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K271" s="17" t="n">
+      <c r="K271" s="16" t="n">
         <v>6</v>
       </c>
       <c r="L271" s="1" t="n">
@@ -8099,7 +8219,7 @@
       <c r="C272" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K272" s="17" t="n">
+      <c r="K272" s="16" t="n">
         <v>7</v>
       </c>
       <c r="L272" s="1" t="n">
@@ -8113,7 +8233,7 @@
       <c r="C273" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K273" s="17" t="n">
+      <c r="K273" s="16" t="n">
         <v>8</v>
       </c>
       <c r="M273" s="1" t="n">
@@ -8121,47 +8241,47 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C274" s="10" t="s">
+      <c r="C274" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K274" s="17" t="n">
+      <c r="K274" s="16" t="n">
         <v>9</v>
       </c>
       <c r="L274" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M274" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" s="15" t="s">
+      <c r="M274" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O274" s="15" t="s">
+      <c r="O274" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="P274" s="15" t="s">
+      <c r="P274" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Q274" s="15"/>
-      <c r="R274" s="15"/>
+      <c r="Q274" s="14"/>
+      <c r="R274" s="14"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C275" s="10" t="s">
+      <c r="C275" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K275" s="17" t="n">
+      <c r="K275" s="16" t="n">
         <v>10</v>
       </c>
       <c r="L275" s="1" t="n">
@@ -8170,16 +8290,16 @@
       <c r="M275" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N275" s="15" t="s">
+      <c r="N275" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O275" s="15" t="s">
+      <c r="O275" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="P275" s="15" t="s">
+      <c r="P275" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="Q275" s="15" t="s">
+      <c r="Q275" s="14" t="s">
         <v>144</v>
       </c>
       <c r="R275" s="1" t="n">
@@ -8187,16 +8307,16 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C276" s="10" t="s">
+      <c r="C276" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K276" s="17" t="n">
+      <c r="K276" s="16" t="n">
         <v>11</v>
       </c>
       <c r="L276" s="1" t="n">
@@ -8205,16 +8325,16 @@
       <c r="M276" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N276" s="15" t="s">
+      <c r="N276" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="O276" s="15" t="s">
+      <c r="O276" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="P276" s="15" t="s">
+      <c r="P276" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="Q276" s="15" t="s">
+      <c r="Q276" s="14" t="s">
         <v>149</v>
       </c>
       <c r="R276" s="1" t="n">
@@ -8222,13 +8342,13 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C277" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K277" s="17" t="n">
+      <c r="C277" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K277" s="16" t="n">
         <v>12</v>
       </c>
       <c r="M277" s="1" t="n">
@@ -8236,13 +8356,13 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C278" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K278" s="17" t="n">
+      <c r="C278" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K278" s="16" t="n">
         <v>13</v>
       </c>
       <c r="M278" s="1" t="n">
@@ -8250,13 +8370,13 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C279" s="10" t="s">
+      <c r="C279" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="K279" s="17" t="n">
+      <c r="K279" s="16" t="n">
         <v>14</v>
       </c>
       <c r="M279" s="1" t="n">
@@ -8264,13 +8384,13 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C280" s="10" t="s">
+      <c r="C280" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="K280" s="17" t="n">
+      <c r="K280" s="16" t="n">
         <v>15</v>
       </c>
       <c r="M280" s="1" t="n">
@@ -8278,7 +8398,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K281" s="17"/>
+      <c r="K281" s="16"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
@@ -8421,143 +8541,143 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15" t="s">
+      <c r="C297" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F297" s="22" t="n">
+      <c r="F297" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="G297" s="15" t="n">
+      <c r="G297" s="14" t="n">
         <v>2991</v>
       </c>
-      <c r="H297" s="23" t="s">
+      <c r="H297" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="I297" s="23" t="s">
+      <c r="I297" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="J297" s="22" t="n">
+      <c r="J297" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="K297" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L297" s="25"/>
-      <c r="M297" s="22"/>
-      <c r="N297" s="22"/>
-      <c r="O297" s="22"/>
-      <c r="P297" s="22"/>
-      <c r="Q297" s="15"/>
-      <c r="R297" s="15"/>
+      <c r="K297" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" s="24"/>
+      <c r="M297" s="21"/>
+      <c r="N297" s="21"/>
+      <c r="O297" s="21"/>
+      <c r="P297" s="21"/>
+      <c r="Q297" s="14"/>
+      <c r="R297" s="14"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="15"/>
-      <c r="K298" s="24"/>
-      <c r="L298" s="17"/>
-      <c r="M298" s="15"/>
-      <c r="N298" s="15"/>
-      <c r="O298" s="20"/>
-      <c r="P298" s="20"/>
-      <c r="Q298" s="15"/>
-      <c r="R298" s="15"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="15"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="23"/>
+      <c r="L298" s="16"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="19"/>
+      <c r="P298" s="19"/>
+      <c r="Q298" s="14"/>
+      <c r="R298" s="14"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="B299" s="14" t="s">
+      <c r="B299" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C299" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="F299" s="22" t="n">
+      <c r="C299" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="G299" s="15" t="n">
+      <c r="G299" s="14" t="n">
         <v>2992</v>
       </c>
-      <c r="H299" s="15" t="s">
+      <c r="H299" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="I299" s="15" t="s">
+      <c r="I299" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J299" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K299" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L299" s="26"/>
-      <c r="M299" s="15"/>
-      <c r="N299" s="15"/>
-      <c r="O299" s="15"/>
-      <c r="P299" s="15"/>
-      <c r="Q299" s="27"/>
-      <c r="R299" s="27"/>
+      <c r="J299" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K299" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" s="25"/>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+      <c r="O299" s="14"/>
+      <c r="P299" s="14"/>
+      <c r="Q299" s="26"/>
+      <c r="R299" s="26"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
-      <c r="I300" s="15"/>
-      <c r="J300" s="15"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="26"/>
-      <c r="M300" s="15"/>
-      <c r="N300" s="15"/>
-      <c r="O300" s="15"/>
-      <c r="P300" s="15"/>
-      <c r="Q300" s="27"/>
-      <c r="R300" s="27"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="16"/>
+      <c r="L300" s="25"/>
+      <c r="M300" s="14"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="14"/>
+      <c r="P300" s="14"/>
+      <c r="Q300" s="26"/>
+      <c r="R300" s="26"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C301" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F301" s="22" t="n">
+      <c r="C301" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F301" s="21" t="n">
         <v>29</v>
       </c>
       <c r="G301" s="1" t="n">
         <v>2993</v>
       </c>
-      <c r="H301" s="15" t="s">
+      <c r="H301" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="I301" s="15" t="s">
+      <c r="I301" s="14" t="s">
         <v>414</v>
       </c>
       <c r="J301" s="1" t="n">
@@ -8580,7 +8700,7 @@
       <c r="E303" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F303" s="28" t="n">
+      <c r="F303" s="27" t="n">
         <v>29</v>
       </c>
       <c r="G303" s="1" t="n">
@@ -8601,7 +8721,7 @@
       <c r="L303" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="U303" s="0" t="n">
+      <c r="U303" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8618,7 +8738,7 @@
       <c r="L304" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="U304" s="0" t="n">
+      <c r="U304" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8635,7 +8755,10 @@
       <c r="K305" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U305" s="0" t="n">
+      <c r="S305" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U305" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8652,13 +8775,16 @@
       <c r="L306" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U306" s="0" t="n">
+      <c r="S306" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U306" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>18</v>
@@ -8669,13 +8795,16 @@
       <c r="L307" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U307" s="0" t="n">
+      <c r="S307" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U307" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>18</v>
@@ -8686,13 +8815,16 @@
       <c r="L308" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U308" s="0" t="n">
+      <c r="S308" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U308" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>18</v>
@@ -8703,13 +8835,16 @@
       <c r="L309" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U309" s="0" t="n">
+      <c r="S309" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="U309" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>18</v>
@@ -8720,13 +8855,16 @@
       <c r="L310" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U310" s="0" t="n">
+      <c r="S310" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U310" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>18</v>
@@ -8737,13 +8875,16 @@
       <c r="L311" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U311" s="0" t="n">
+      <c r="S311" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="U311" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>18</v>
@@ -8755,21 +8896,24 @@
         <v>3</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O312" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P312" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="U312" s="0" t="n">
-        <v>0</v>
+        <v>436</v>
+      </c>
+      <c r="S312" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U312" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>18</v>
@@ -8780,13 +8924,16 @@
       <c r="L313" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U313" s="0" t="n">
-        <v>4</v>
+      <c r="S313" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="U313" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>30</v>
@@ -8800,23 +8947,23 @@
       <c r="L314" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="S314" s="0" t="s">
-        <v>433</v>
+      <c r="S314" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="T314" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="U314" s="0" t="n">
+      <c r="U314" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>18</v>
@@ -8831,12 +8978,12 @@
         <v>2946</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J316" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="J316" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K316" s="1" t="n">
@@ -8845,10 +8992,14 @@
       <c r="L316" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="T316" s="0"/>
+      <c r="U316" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>18</v>
@@ -8859,10 +9010,14 @@
       <c r="L317" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="T317" s="0"/>
+      <c r="U317" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>30</v>
@@ -8873,14 +9028,23 @@
       <c r="K318" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="S318" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T318" s="0"/>
+      <c r="U318" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T319" s="0"/>
+    </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>18</v>
@@ -8888,17 +9052,17 @@
       <c r="E320" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F320" s="28" t="n">
+      <c r="F320" s="27" t="n">
         <v>29</v>
       </c>
       <c r="G320" s="1" t="n">
         <v>2936</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="J320" s="1" t="n">
         <v>2908</v>
@@ -8910,18 +9074,25 @@
         <v>3</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O320" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P320" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
+      </c>
+      <c r="S320" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="T320" s="0"/>
+      <c r="U320" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>18</v>
@@ -8935,10 +9106,14 @@
       <c r="L321" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="T321" s="0"/>
+      <c r="U321" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>18</v>
@@ -8949,10 +9124,14 @@
       <c r="L322" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="T322" s="0"/>
+      <c r="U322" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>30</v>
@@ -8963,10 +9142,17 @@
       <c r="K323" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="S323" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T323" s="0"/>
+      <c r="U323" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>18</v>
@@ -8976,15 +9162,19 @@
       </c>
       <c r="L324" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="T324" s="0"/>
+      <c r="U324" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>18</v>
@@ -8992,17 +9182,17 @@
       <c r="E326" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F326" s="28" t="n">
+      <c r="F326" s="27" t="n">
         <v>29</v>
       </c>
       <c r="G326" s="1" t="n">
         <v>2937</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="J326" s="1" t="n">
         <v>2908</v>
@@ -9017,12 +9207,12 @@
         <v>2936</v>
       </c>
       <c r="O326" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>18</v>
@@ -9036,7 +9226,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>30</v>
@@ -9050,7 +9240,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>18</v>
@@ -9062,28 +9252,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0"/>
-      <c r="B330" s="0"/>
-      <c r="C330" s="0"/>
-      <c r="E330" s="0"/>
-      <c r="F330" s="0"/>
-      <c r="G330" s="0"/>
-      <c r="H330" s="0"/>
-      <c r="I330" s="0"/>
-      <c r="K330" s="0"/>
-      <c r="L330" s="0"/>
-      <c r="M330" s="0"/>
-      <c r="N330" s="0"/>
-      <c r="O330" s="0"/>
-      <c r="P330" s="0"/>
-    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>18</v>
@@ -9091,17 +9266,17 @@
       <c r="E331" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F331" s="28" t="n">
+      <c r="F331" s="27" t="n">
         <v>29</v>
       </c>
       <c r="G331" s="1" t="n">
         <v>2935</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="J331" s="1" t="n">
         <v>2908</v>
@@ -9112,16 +9287,13 @@
       <c r="L331" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N331" s="0"/>
-      <c r="O331" s="0"/>
-      <c r="P331" s="0"/>
-      <c r="U331" s="0" t="n">
+      <c r="U331" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>18</v>
@@ -9132,13 +9304,13 @@
       <c r="L332" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="U332" s="0" t="n">
+      <c r="U332" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>18</v>
@@ -9159,15 +9331,15 @@
         <v>420</v>
       </c>
       <c r="S333" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="U333" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="U333" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>30</v>
@@ -9181,13 +9353,13 @@
       <c r="S334" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U334" s="0" t="n">
+      <c r="U334" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>18</v>
@@ -9198,25 +9370,25 @@
       <c r="L335" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N335" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="O335" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="P335" s="10" t="s">
-        <v>462</v>
+      <c r="N335" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="O335" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="P335" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="S335" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="U335" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="U335" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>18</v>
@@ -9230,31 +9402,31 @@
       <c r="M336" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N336" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="O336" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="P336" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q336" s="10" t="s">
-        <v>468</v>
+      <c r="N336" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="O336" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="P336" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q336" s="9" t="s">
+        <v>478</v>
       </c>
       <c r="R336" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S336" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="U336" s="0" t="n">
+        <v>479</v>
+      </c>
+      <c r="U336" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>18</v>
@@ -9265,25 +9437,25 @@
       <c r="L337" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N337" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="O337" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="P337" s="10" t="s">
-        <v>473</v>
+      <c r="N337" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="O337" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="P337" s="9" t="s">
+        <v>483</v>
       </c>
       <c r="S337" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="U337" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="U337" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>18</v>
@@ -9297,60 +9469,58 @@
       <c r="M338" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N338" s="10" t="s">
+      <c r="N338" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O338" s="10" t="s">
+      <c r="O338" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P338" s="10" t="s">
+      <c r="P338" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q338" s="10" t="s">
-        <v>476</v>
+      <c r="Q338" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="R338" s="1" t="n">
         <v>7</v>
       </c>
       <c r="S338" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U338" s="0" t="n">
+        <v>487</v>
+      </c>
+      <c r="U338" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="1" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="K339" s="1" t="n">
         <v>9</v>
       </c>
       <c r="L339" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="N339" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="O339" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="P339" s="1" t="s">
-        <v>481</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N339" s="9"/>
+      <c r="O339" s="9"/>
+      <c r="P339" s="9"/>
+      <c r="Q339" s="9"/>
       <c r="S339" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="U339" s="0" t="n">
-        <v>5</v>
+        <v>490</v>
+      </c>
+      <c r="U339" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="1" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>18</v>
@@ -9358,16 +9528,37 @@
       <c r="K340" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L340" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M340" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O340" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P340" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q340" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="R340" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="S340" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="U340" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="U340" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="1" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>18</v>
@@ -9376,18 +9567,33 @@
         <v>11</v>
       </c>
       <c r="L341" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="M341" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O341" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P341" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q341" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="S341" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="U341" s="0" t="n">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="U341" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="1" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>18</v>
@@ -9395,19 +9601,16 @@
       <c r="K342" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L342" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="S342" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="U342" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="U342" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="1" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>18</v>
@@ -9419,15 +9622,15 @@
         <v>7</v>
       </c>
       <c r="S343" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="U343" s="0" t="n">
+        <v>506</v>
+      </c>
+      <c r="U343" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="1" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>18</v>
@@ -9439,15 +9642,15 @@
         <v>7</v>
       </c>
       <c r="S344" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="U344" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="U344" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="1" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>18</v>
@@ -9459,15 +9662,15 @@
         <v>7</v>
       </c>
       <c r="S345" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="U345" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="U345" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="1" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>18</v>
@@ -9479,15 +9682,15 @@
         <v>7</v>
       </c>
       <c r="S346" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="U346" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="U346" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="1" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>18</v>
@@ -9499,32 +9702,35 @@
         <v>7</v>
       </c>
       <c r="S347" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="U347" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="U347" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="1" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="K348" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="L348" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="S348" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="U348" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="U348" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="1" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>18</v>
@@ -9532,33 +9738,36 @@
       <c r="K349" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="L349" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="S349" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="U349" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="U349" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="1" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="K350" s="1" t="n">
         <v>20</v>
       </c>
       <c r="S350" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="U350" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="U350" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="1" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>18</v>
@@ -9567,15 +9776,15 @@
         <v>21</v>
       </c>
       <c r="S351" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="U351" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="U351" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>18</v>
@@ -9584,15 +9793,15 @@
         <v>22</v>
       </c>
       <c r="S352" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="U352" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="U352" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="1" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>18</v>
@@ -9601,15 +9810,15 @@
         <v>23</v>
       </c>
       <c r="S353" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="U353" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="U353" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="1" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>18</v>
@@ -9617,14 +9826,16 @@
       <c r="K354" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="S354" s="1"/>
-      <c r="U354" s="0" t="n">
+      <c r="S354" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="U354" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="1" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>18</v>
@@ -9632,473 +9843,499 @@
       <c r="K355" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="S355" s="1"/>
-      <c r="U355" s="0" t="n">
+      <c r="S355" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U355" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="1" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D356" s="1" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K356" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L356" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="S356" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="T356" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="U356" s="0" t="n">
+      <c r="M356" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U356" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0"/>
-      <c r="B357" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D357" s="0"/>
-      <c r="E357" s="0"/>
-      <c r="F357" s="0"/>
-      <c r="G357" s="0"/>
-      <c r="H357" s="0"/>
-      <c r="I357" s="0"/>
+      <c r="B357" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K357" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="L357" s="0" t="n">
+      <c r="M357" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U357" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B358" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D358" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K358" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L358" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S358" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="T358" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="U358" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K359" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="L359" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="M357" s="0"/>
-      <c r="N357" s="0"/>
-      <c r="O357" s="0"/>
-      <c r="P357" s="0"/>
-      <c r="S357" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="T357" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="U357" s="0" t="n">
+      <c r="M359" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="T359" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="U359" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0"/>
-      <c r="B358" s="0"/>
-      <c r="C358" s="0"/>
-      <c r="D358" s="0"/>
-      <c r="E358" s="0"/>
-      <c r="F358" s="0"/>
-      <c r="G358" s="0"/>
-      <c r="H358" s="0"/>
-      <c r="I358" s="0"/>
-      <c r="K358" s="0"/>
-      <c r="L358" s="0"/>
-      <c r="M358" s="0"/>
-      <c r="N358" s="0"/>
-      <c r="O358" s="0"/>
-      <c r="P358" s="0"/>
-    </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E359" s="1" t="s">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F359" s="28" t="n">
+      <c r="F361" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="G359" s="1" t="n">
+      <c r="G361" s="1" t="n">
         <v>2938</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I359" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J359" s="1" t="n">
-        <v>2904</v>
-      </c>
-      <c r="K359" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L359" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N359" s="1" t="s">
+      <c r="H361" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J361" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K361" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N361" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="O359" s="1" t="s">
+      <c r="O361" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="P359" s="1" t="s">
+      <c r="P361" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K360" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L360" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B361" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K361" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L361" s="1" t="n">
-        <v>6</v>
+      <c r="S361" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="U361" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D362" s="1" t="n">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K362" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L362" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U362" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K363" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="L363" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U363" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="K364" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S364" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="U364" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K365" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S365" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U365" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K366" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L364" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B366" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C366" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12" t="s">
+      <c r="L366" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U366" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="12"/>
-      <c r="I366" s="12"/>
-      <c r="K366" s="12"/>
-      <c r="L366" s="12"/>
-      <c r="M366" s="12"/>
-      <c r="N366" s="12"/>
-      <c r="O366" s="12"/>
-      <c r="P366" s="12"/>
-      <c r="Q366" s="12"/>
-      <c r="R366" s="12"/>
-    </row>
-    <row r="367" s="29" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="12"/>
-      <c r="B367" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="C367" s="12" t="s">
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
+      <c r="M368" s="11"/>
+      <c r="N368" s="11"/>
+      <c r="O368" s="11"/>
+      <c r="P368" s="11"/>
+      <c r="Q368" s="11"/>
+      <c r="R368" s="11"/>
+    </row>
+    <row r="369" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="11"/>
+      <c r="B369" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C369" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D367" s="12" t="n">
+      <c r="D369" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E367" s="12"/>
-      <c r="F367" s="12"/>
-      <c r="G367" s="12"/>
-      <c r="H367" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="I367" s="12"/>
-      <c r="K367" s="12"/>
-      <c r="L367" s="12"/>
-      <c r="M367" s="12"/>
-      <c r="N367" s="12"/>
-      <c r="O367" s="12"/>
-      <c r="P367" s="12"/>
-      <c r="Q367" s="12"/>
-      <c r="R367" s="12"/>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E369" s="1" t="s">
+      <c r="E369" s="11"/>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="I369" s="11"/>
+      <c r="K369" s="11"/>
+      <c r="L369" s="11"/>
+      <c r="M369" s="11"/>
+      <c r="N369" s="11"/>
+      <c r="O369" s="11"/>
+      <c r="P369" s="11"/>
+      <c r="Q369" s="11"/>
+      <c r="R369" s="11"/>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F369" s="28" t="n">
+      <c r="F371" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="G369" s="1" t="n">
+      <c r="G371" s="1" t="n">
         <v>2940</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I369" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J369" s="1" t="n">
-        <v>2904</v>
-      </c>
-      <c r="K369" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L369" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N369" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="O369" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="P369" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K370" s="1" t="n">
+      <c r="H371" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J371" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K371" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L371" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O371" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P371" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S371" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="U371" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L370" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K371" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L371" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E372" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K372" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L372" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M372" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O372" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="P372" s="1" t="s">
-        <v>537</v>
+        <v>8</v>
+      </c>
+      <c r="S372" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="U372" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K373" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L373" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M373" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O373" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P373" s="1" t="s">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="U373" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K374" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L374" s="1" t="n">
         <v>3</v>
       </c>
       <c r="M374" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="O374" s="1" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="P374" s="1" t="s">
-        <v>473</v>
+        <v>500</v>
+      </c>
+      <c r="Q374" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S374" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="U374" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K375" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L375" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M375" s="1" t="n">
-        <v>31</v>
-      </c>
       <c r="N375" s="1" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="O375" s="1" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="P375" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q375" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="R375" s="1" t="n">
-        <v>6</v>
+        <v>255</v>
+      </c>
+      <c r="S375" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U375" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K376" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L376" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N376" s="1" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="O376" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="P376" s="1" t="s">
-        <v>462</v>
+        <v>483</v>
+      </c>
+      <c r="S376" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U376" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K377" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L377" s="1" t="n">
         <v>3</v>
@@ -10107,319 +10344,556 @@
         <v>31</v>
       </c>
       <c r="N377" s="1" t="s">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="O377" s="1" t="s">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="P377" s="1" t="s">
-        <v>467</v>
+        <v>74</v>
       </c>
       <c r="Q377" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="R377" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="S377" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="U377" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K378" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L378" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O378" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P378" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="S378" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U378" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K379" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L379" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M379" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O379" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P379" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q379" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R379" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S379" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U379" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K380" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="M380" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L380" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S380" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="U380" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="1" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K381" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L381" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N381" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O381" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P381" s="1" t="s">
-        <v>443</v>
+        <v>7</v>
+      </c>
+      <c r="M381" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S381" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="U381" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="1" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K382" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="L382" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M382" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="N382" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O382" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="P382" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q382" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="R382" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="S382" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="U382" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="1" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K383" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="L383" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="O383" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P383" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S383" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U383" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="1" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K384" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L384" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M384" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O384" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P384" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q384" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R384" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="S384" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="U384" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B385" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K385" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M385" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U385" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B386" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K386" s="1" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>19</v>
+      <c r="M386" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U386" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B387" s="1" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="C387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K387" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L387" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S387" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="U387" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B388" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H387" s="1" t="s">
-        <v>550</v>
+      <c r="K388" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L388" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S388" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U388" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="s">
+      <c r="B389" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K389" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L389" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="N389" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O389" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P389" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S389" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="T389" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F389" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="G389" s="1" t="n">
-        <v>2942</v>
-      </c>
-      <c r="H389" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I389" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="J389" s="1" t="n">
-        <v>2904</v>
-      </c>
-      <c r="K389" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L389" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N389" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O389" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="P389" s="1" t="s">
-        <v>420</v>
+      <c r="U389" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B390" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K390" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L390" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="M390" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O390" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P390" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="T390" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="U390" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B391" s="1" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K391" s="1" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L391" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="O391" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P391" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S391" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="T391" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U391" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B392" s="1" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="C392" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="L392" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M392" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O392" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P392" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R392" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="S392" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T392" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="U392" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="11"/>
+      <c r="I394" s="11"/>
+      <c r="J394" s="29"/>
+      <c r="K394" s="11"/>
+      <c r="L394" s="11"/>
+      <c r="M394" s="11"/>
+      <c r="N394" s="11"/>
+      <c r="O394" s="11"/>
+      <c r="P394" s="11"/>
+      <c r="Q394" s="11"/>
+      <c r="R394" s="11"/>
+      <c r="S394" s="11"/>
+      <c r="T394" s="11"/>
+      <c r="U394" s="11"/>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="11"/>
+      <c r="B395" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C395" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D392" s="1" t="n">
+      <c r="D395" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="K392" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B393" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D393" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="K393" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B394" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K394" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L394" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B395" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K395" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B396" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K396" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L396" s="1" t="n">
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="I395" s="11"/>
+      <c r="J395" s="29"/>
+      <c r="K395" s="11"/>
+      <c r="L395" s="11"/>
+      <c r="M395" s="11"/>
+      <c r="N395" s="11"/>
+      <c r="O395" s="11"/>
+      <c r="P395" s="11"/>
+      <c r="Q395" s="11"/>
+      <c r="R395" s="11"/>
+      <c r="S395" s="11"/>
+      <c r="T395" s="11"/>
+      <c r="U395" s="11"/>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F397" s="27" t="n">
+        <v>29</v>
+      </c>
+      <c r="G397" s="1" t="n">
+        <v>2942</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J397" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L397" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N397" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O397" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="P397" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="S397" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="U397" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="B398" s="1" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>18</v>
@@ -10427,142 +10901,133 @@
       <c r="E398" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F398" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="G398" s="1" t="n">
-        <v>2943</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J398" s="1" t="n">
-        <v>2904</v>
-      </c>
       <c r="K398" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L398" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="N398" s="1" t="n">
-        <v>2940</v>
-      </c>
-      <c r="O398" s="1" t="s">
-        <v>533</v>
+        <v>6</v>
+      </c>
+      <c r="U398" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B399" s="1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E399" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K399" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L399" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U399" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L399" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M399" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N399" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="O399" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="P399" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B400" s="1" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D400" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="K400" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L400" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="S400" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="U400" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B401" s="1" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D401" s="1" t="n">
+        <v>250</v>
       </c>
       <c r="K401" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L401" s="1" t="n">
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="U401" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B402" s="1" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K402" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L402" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="U402" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="L402" s="1" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B403" s="1" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K403" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L403" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="M403" s="1" t="n">
-        <v>1</v>
+      <c r="U403" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B404" s="1" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K404" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L404" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="M404" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="U404" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>18</v>
@@ -10570,17 +11035,17 @@
       <c r="E406" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F406" s="1" t="n">
+      <c r="F406" s="27" t="n">
         <v>29</v>
       </c>
       <c r="G406" s="1" t="n">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>359</v>
+        <v>601</v>
       </c>
       <c r="J406" s="1" t="n">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="K406" s="1" t="n">
         <v>1</v>
@@ -10592,12 +11057,15 @@
         <v>2940</v>
       </c>
       <c r="O406" s="1" t="s">
-        <v>533</v>
+        <v>556</v>
+      </c>
+      <c r="U406" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B407" s="1" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>18</v>
@@ -10609,12 +11077,30 @@
         <v>2</v>
       </c>
       <c r="L407" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="M407" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="O407" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P407" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="U407" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B408" s="1" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>18</v>
@@ -10625,35 +11111,47 @@
       <c r="L408" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="U408" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B409" s="1" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H409" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="K409" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="L409" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="U409" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B410" s="1" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="K410" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="L410" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="U410" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B411" s="1" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>18</v>
@@ -10662,15 +11160,21 @@
         <v>6</v>
       </c>
       <c r="L411" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M411" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="U411" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B412" s="1" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>18</v>
@@ -10679,140 +11183,329 @@
         <v>7</v>
       </c>
       <c r="L412" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M412" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B413" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K413" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="M413" s="1" t="n">
-        <v>73</v>
+      <c r="S412" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="U412" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="B414" s="1" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>2944</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J414" s="1" t="n">
+        <v>2908</v>
+      </c>
       <c r="K414" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M414" s="1" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
-        <v>583</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L414" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="N414" s="1" t="n">
+        <v>2940</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U414" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B415" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K415" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L415" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U415" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B416" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E416" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F416" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="G416" s="1" t="n">
-        <v>2945</v>
-      </c>
-      <c r="H416" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="I416" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="J416" s="1" t="n">
-        <v>2904</v>
-      </c>
       <c r="K416" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L416" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="N416" s="1" t="n">
-        <v>2940</v>
-      </c>
-      <c r="O416" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="U416" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B417" s="1" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E417" s="1" t="s">
-        <v>19</v>
+      <c r="H417" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="K417" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L417" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N417" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="O417" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="P417" s="1" t="s">
-        <v>521</v>
+        <v>4</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="U417" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B418" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="K418" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L418" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="U418" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B419" s="1" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K419" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L419" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M419" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="U419" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B420" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K420" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L420" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M420" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="U420" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B421" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K421" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M421" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="U421" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B422" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K422" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M422" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="U422" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F424" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="G424" s="1" t="n">
+        <v>2945</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="J424" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K424" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L424" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="N424" s="1" t="n">
+        <v>2940</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U424" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K425" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L425" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="U425" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B426" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K426" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L426" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U426" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B427" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K427" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U427" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10838,7 +11531,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10861,7 +11554,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
